--- a/test/test_data_numbers.xlsx
+++ b/test/test_data_numbers.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test.number_cols" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet state="visible" name="test.number_cols" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,59 +22,69 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_bigint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_double</t>
+    <t>k</t>
+  </si>
+  <si>
+    <t>c_bit</t>
+  </si>
+  <si>
+    <t>c_int</t>
+  </si>
+  <si>
+    <t>c_bigint</t>
+  </si>
+  <si>
+    <t>c_decimal</t>
+  </si>
+  <si>
+    <t>c_double</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2" mc:Ignorable="x14ac">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10"/>
       <name val="游ゴシック"/>
+      <charset val="128"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,52 +96,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,24 +153,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView topLeftCell="A1" workbookViewId="0" colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" view="normal" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection pane="topLeft" activeCell="E3" sqref="E3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.44"/>
+    <col min="3" max="3" width="32.27" customWidth="1"/>
+    <col min="6" max="6" width="17.35" customWidth="1"/>
+    <col min="7" max="7" width="25.44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -183,23 +190,23 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row ht="12.8" outlineLevel="0" r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="0">
         <v>10101</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="0">
         <v>1234567</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="0">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>123.456789</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="0">
+        <v>123.45678</v>
+      </c>
+      <c r="F2" s="0">
         <v>987.654321</v>
       </c>
       <c r="G2" s="2"/>
